--- a/Dataset_Passenger_data.xlsx
+++ b/Dataset_Passenger_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jelletop/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5B1FF-2BB7-F34B-89ED-DB7CFC51A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7016BF-7576-6647-B7EF-8A08F341F586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Link to data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="334">
   <si>
     <t>37478eng_UntypedDataSet_30092024_114120</t>
   </si>
@@ -1016,13 +1017,19 @@
   </si>
   <si>
     <t>2024MM07</t>
+  </si>
+  <si>
+    <t>Link to dataset edits:</t>
+  </si>
+  <si>
+    <t>https://opendata.cbs.nl/statline/portal.html?_la=en&amp;_catalog=CBS&amp;tableId=37478eng&amp;_theme=1185</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1038,6 +1045,19 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1176,12 +1196,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1218,8 +1241,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2380,7 +2410,7 @@
   </sheetPr>
   <dimension ref="A1:W309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -24318,4 +24348,33 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF0F547-F1DC-4B4E-B6DD-98520A0CDD04}">
+  <dimension ref="E6:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="77.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="E6" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{E522F172-38EC-8441-935B-988D474980FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>